--- a/ajout-ST/ig/CodeSystem-type-carte-code-system.xlsx
+++ b/ajout-ST/ig/CodeSystem-type-carte-code-system.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-08T09:17:31+00:00</t>
+    <t>2026-01-08T09:17:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ajout-ST/ig/CodeSystem-type-carte-code-system.xlsx
+++ b/ajout-ST/ig/CodeSystem-type-carte-code-system.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-08T09:17:48+00:00</t>
+    <t>2026-01-29T13:10:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ajout-ST/ig/CodeSystem-type-carte-code-system.xlsx
+++ b/ajout-ST/ig/CodeSystem-type-carte-code-system.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-29T13:10:46+00:00</t>
+    <t>2026-02-18T15:25:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ajout-ST/ig/CodeSystem-type-carte-code-system.xlsx
+++ b/ajout-ST/ig/CodeSystem-type-carte-code-system.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-18T15:25:05+00:00</t>
+    <t>2026-02-20T12:56:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
